--- a/Bewertungsmatrix.xlsx
+++ b/Bewertungsmatrix.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>Nr</t>
   </si>
@@ -72,6 +72,15 @@
     <t>BK9</t>
   </si>
   <si>
+    <t>BK10</t>
+  </si>
+  <si>
+    <t>BK11</t>
+  </si>
+  <si>
+    <t>BK12</t>
+  </si>
+  <si>
     <t>Lernkurve</t>
   </si>
   <si>
@@ -114,9 +123,6 @@
     <t>Ideal</t>
   </si>
   <si>
-    <t>* Diese Bewertungskriterien sind invers zu interpretieren. Eine hohe Zahl bedeutet ein kleinerer Aufwand  / Impact / komplexität</t>
-  </si>
-  <si>
     <t>Bewertungsmatrix Teillösungen</t>
   </si>
   <si>
@@ -205,6 +211,15 @@
   </si>
   <si>
     <t>Column4</t>
+  </si>
+  <si>
+    <t>Strategisch</t>
+  </si>
+  <si>
+    <t>Know-How</t>
+  </si>
+  <si>
+    <t>Konfigurationsänderung</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1104,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:V12" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:V15" totalsRowShown="0">
   <tableColumns count="22">
     <tableColumn id="1" name="Nr" dataDxfId="41"/>
     <tableColumn id="2" name="Beschreibung" dataDxfId="40" totalsRowDxfId="39"/>
@@ -1415,10 +1430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V30"/>
+  <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1440,7 +1455,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -1469,30 +1484,30 @@
       <c r="B2" s="27"/>
       <c r="C2" s="28"/>
       <c r="D2" s="21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
       <c r="G2" s="23"/>
       <c r="H2" s="21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I2" s="22"/>
       <c r="J2" s="22"/>
       <c r="K2" s="21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L2" s="22"/>
       <c r="M2" s="22"/>
       <c r="N2" s="23"/>
       <c r="O2" s="24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P2" s="25"/>
       <c r="Q2" s="25"/>
       <c r="R2" s="26"/>
       <c r="S2" s="24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T2" s="25"/>
       <c r="U2" s="25"/>
@@ -1506,64 +1521,64 @@
         <v>1</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H3" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="R3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="S3" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="N3" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="P3" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q3" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="R3" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="S3" s="17" t="s">
-        <v>38</v>
-      </c>
       <c r="T3" s="18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U3" s="18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V3" s="19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -1571,7 +1586,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2">
         <v>5</v>
@@ -1601,7 +1616,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
@@ -1631,7 +1646,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>4</v>
@@ -1691,7 +1706,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
@@ -1721,7 +1736,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2">
         <v>3</v>
@@ -1781,7 +1796,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C11" s="2">
         <v>3</v>
@@ -1806,12 +1821,12 @@
       <c r="U11" s="5"/>
       <c r="V11" s="8"/>
     </row>
-    <row r="12" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C12" s="2">
         <v>4</v>
@@ -1836,227 +1851,228 @@
       <c r="U12" s="5"/>
       <c r="V12" s="8"/>
     </row>
-    <row r="13" spans="1:22" s="3" customFormat="1" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+    <row r="13" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="8"/>
+    </row>
+    <row r="14" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="2">
         <v>2</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="9">
-        <f>SUMPRODUCT(C4:C12,D4:D12)</f>
+      <c r="D14" s="7"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="8"/>
+    </row>
+    <row r="15" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="2">
+        <v>5</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="8"/>
+    </row>
+    <row r="16" spans="1:22" s="3" customFormat="1" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="9">
+        <f>SUMPRODUCT(C4:C15,D4:D15)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="10">
-        <f>SUMPRODUCT(C4:C12,E4:E12)</f>
+      <c r="E16" s="10">
+        <f>SUMPRODUCT(C4:C15,E4:E15)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="11">
-        <f>SUMPRODUCT(C4:C12,F4:F12)</f>
+      <c r="F16" s="11">
+        <f>SUMPRODUCT(C4:C15,F4:F15)</f>
         <v>0</v>
       </c>
-      <c r="G13" s="12">
-        <f>SUMPRODUCT(C4:C12,G4:G12)</f>
+      <c r="G16" s="12">
+        <f>SUMPRODUCT(C4:C15,G4:G15)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="13">
-        <f>SUMPRODUCT(C4:C12,H4:H12)</f>
+      <c r="H16" s="13">
+        <f>SUMPRODUCT(C4:C15,H4:H15)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="10">
-        <f>SUMPRODUCT(C4:C12,I4:I12)</f>
+      <c r="I16" s="10">
+        <f>SUMPRODUCT(C4:C15,I4:I15)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="11">
-        <f>SUMPRODUCT(C4:C12,J4:J12)</f>
+      <c r="J16" s="11">
+        <f>SUMPRODUCT(C4:C15,J4:J15)</f>
         <v>0</v>
       </c>
-      <c r="K13" s="13">
-        <f>SUMPRODUCT(C4:C12,K4:K12)</f>
+      <c r="K16" s="13">
+        <f>SUMPRODUCT(C4:C15,K4:K15)</f>
         <v>0</v>
       </c>
-      <c r="L13" s="10">
-        <f>SUMPRODUCT(C4:C12,L4:L12)</f>
+      <c r="L16" s="10">
+        <f>SUMPRODUCT(C4:C15,L4:L15)</f>
         <v>0</v>
       </c>
-      <c r="M13" s="11">
-        <f>SUMPRODUCT(C4:C12,M4:M12)</f>
+      <c r="M16" s="11">
+        <f>SUMPRODUCT(C4:C15,M4:M15)</f>
         <v>0</v>
       </c>
-      <c r="N13" s="12">
-        <f>SUMPRODUCT(C4:C12,N4:N12)</f>
+      <c r="N16" s="12">
+        <f>SUMPRODUCT(C4:C15,N4:N15)</f>
         <v>0</v>
       </c>
-      <c r="O13" s="13">
-        <f>SUMPRODUCT(C4:C12,O4:O12)</f>
+      <c r="O16" s="13">
+        <f>SUMPRODUCT(C4:C15,O4:O15)</f>
         <v>0</v>
       </c>
-      <c r="P13" s="10">
-        <f>SUMPRODUCT(C4:C12,P4:P12)</f>
+      <c r="P16" s="10">
+        <f>SUMPRODUCT(C4:C15,P4:P15)</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="11">
-        <f>SUMPRODUCT(C4:C12,Q4:Q12)</f>
+      <c r="Q16" s="11">
+        <f>SUMPRODUCT(C4:C15,Q4:Q15)</f>
         <v>0</v>
       </c>
-      <c r="R13" s="12">
-        <f>SUMPRODUCT(C4:C12,R4:R12)</f>
+      <c r="R16" s="12">
+        <f>SUMPRODUCT(C4:C15,R4:R15)</f>
         <v>0</v>
       </c>
-      <c r="S13" s="13">
-        <f>SUMPRODUCT(C4:C12,S4:S12)</f>
+      <c r="S16" s="13">
+        <f>SUMPRODUCT(C4:C15,S4:S15)</f>
         <v>0</v>
       </c>
-      <c r="T13" s="10">
-        <f>SUMPRODUCT(C4:C12,T4:T12)</f>
+      <c r="T16" s="10">
+        <f>SUMPRODUCT(C4:C15,T4:T15)</f>
         <v>0</v>
       </c>
-      <c r="U13" s="11">
-        <f>SUMPRODUCT(C4:C12,U4:U12)</f>
+      <c r="U16" s="11">
+        <f>SUMPRODUCT(C4:C15,U4:U15)</f>
         <v>0</v>
       </c>
-      <c r="V13" s="12">
-        <f>SUMPRODUCT(C4:C12,V4:V12)</f>
+      <c r="V16" s="12">
+        <f>SUMPRODUCT(C4:C15,V4:V15)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="32"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="32"/>
-      <c r="V14" s="32"/>
-    </row>
-    <row r="15" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="H15" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="40"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="15">
-        <v>1</v>
-      </c>
-      <c r="S15" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="38"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="36" t="s">
+    <row r="17" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32"/>
+    </row>
+    <row r="18" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="H18" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="15">
-        <v>2</v>
-      </c>
-      <c r="S16" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="T16" s="37"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="38"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="15">
-        <v>3</v>
-      </c>
-      <c r="S17" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="T17" s="37"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="38"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="43"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="41"/>
       <c r="K18" s="36" t="s">
         <v>21</v>
       </c>
       <c r="L18" s="37"/>
       <c r="M18" s="37"/>
       <c r="N18" s="38"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="43"/>
+      <c r="O18" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="41"/>
       <c r="R18" s="15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S18" s="36" t="s">
         <v>26</v>
@@ -2072,20 +2088,20 @@
       <c r="D19" s="34"/>
       <c r="E19" s="34"/>
       <c r="F19" s="34"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="46"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="43"/>
       <c r="K19" s="36" t="s">
         <v>22</v>
       </c>
       <c r="L19" s="37"/>
       <c r="M19" s="37"/>
       <c r="N19" s="38"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="46"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="43"/>
       <c r="R19" s="15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S19" s="36" t="s">
         <v>27</v>
@@ -2095,50 +2111,137 @@
       <c r="V19" s="38"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="15">
+        <v>3</v>
+      </c>
+      <c r="S20" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="38"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="F21" s="14"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="15">
+        <v>4</v>
+      </c>
+      <c r="S21" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="T21" s="37"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="38"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="15">
+        <v>5</v>
+      </c>
+      <c r="S22" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="T22" s="37"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="38"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
+      <c r="B23" s="3"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
+      <c r="F24" s="14"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="J30" s="14"/>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A26" s="14"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A27" s="14"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A28" s="14"/>
+    </row>
+    <row r="33" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J33" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A14:V14"/>
+    <mergeCell ref="A17:V17"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A16:C16"/>
     <mergeCell ref="S2:V2"/>
-    <mergeCell ref="S15:V15"/>
-    <mergeCell ref="S16:V16"/>
-    <mergeCell ref="S17:V17"/>
     <mergeCell ref="S18:V18"/>
     <mergeCell ref="S19:V19"/>
-    <mergeCell ref="H15:J19"/>
-    <mergeCell ref="O15:Q19"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="S22:V22"/>
+    <mergeCell ref="H18:J22"/>
+    <mergeCell ref="O18:Q22"/>
     <mergeCell ref="K18:N18"/>
     <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/Bewertungsmatrix.xlsx
+++ b/Bewertungsmatrix.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heuby/git/masterthesis/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="6120" windowWidth="24760" windowHeight="17040"/>
+    <workbookView xWindow="2100" yWindow="6120" windowWidth="24765" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
     <t>Nr</t>
   </si>
@@ -219,7 +214,13 @@
     <t>Know-How</t>
   </si>
   <si>
-    <t>Konfigurationsänderung</t>
+    <t>BK13</t>
+  </si>
+  <si>
+    <t>Muli Version</t>
+  </si>
+  <si>
+    <t>Konfigurationsänderung / Neustart</t>
   </si>
 </sst>
 </file>
@@ -655,6 +656,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -685,18 +695,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="4" applyFont="1" applyBorder="1"/>
@@ -710,6 +708,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
@@ -1104,7 +1105,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:V15" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:V16" totalsRowShown="0">
   <tableColumns count="22">
     <tableColumn id="1" name="Nr" dataDxfId="41"/>
     <tableColumn id="2" name="Beschreibung" dataDxfId="40" totalsRowDxfId="39"/>
@@ -1422,7 +1423,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1430,90 +1431,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V33"/>
+  <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="45.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" customWidth="1"/>
+    <col min="8" max="9" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" customWidth="1"/>
+    <col min="14" max="14" width="5.28515625" customWidth="1"/>
+    <col min="15" max="16" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.5703125" customWidth="1"/>
+    <col min="18" max="18" width="6" customWidth="1"/>
+    <col min="19" max="20" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="3.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:22" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-    </row>
-    <row r="2" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="21" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+    </row>
+    <row r="2" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="21" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="21" t="s">
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="24" t="s">
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="24" t="s">
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="26"/>
-    </row>
-    <row r="3" spans="1:22" ht="133" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="29"/>
+    </row>
+    <row r="3" spans="1:22" ht="132.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1581,7 +1585,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1591,27 +1595,51 @@
       <c r="C4" s="2">
         <v>5</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="8"/>
+      <c r="D4" s="7">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4">
+        <v>5</v>
+      </c>
+      <c r="F4" s="5">
+        <v>3</v>
+      </c>
+      <c r="G4" s="8">
+        <v>3</v>
+      </c>
       <c r="H4" s="7"/>
       <c r="I4" s="4"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="8"/>
+      <c r="K4" s="7">
+        <v>5</v>
+      </c>
+      <c r="L4" s="4">
+        <v>4</v>
+      </c>
+      <c r="M4" s="5">
+        <v>4</v>
+      </c>
+      <c r="N4" s="8">
+        <v>5</v>
+      </c>
+      <c r="O4" s="7">
+        <v>4</v>
+      </c>
+      <c r="P4" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>5</v>
+      </c>
+      <c r="R4" s="8">
+        <v>4</v>
+      </c>
       <c r="S4" s="7"/>
       <c r="T4" s="4"/>
       <c r="U4" s="5"/>
       <c r="V4" s="8"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -1621,27 +1649,51 @@
       <c r="C5" s="2">
         <v>4</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="8"/>
+      <c r="D5" s="7">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4">
+        <v>5</v>
+      </c>
+      <c r="F5" s="5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="8">
+        <v>4</v>
+      </c>
       <c r="H5" s="7"/>
       <c r="I5" s="4"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="8"/>
+      <c r="K5" s="7">
+        <v>5</v>
+      </c>
+      <c r="L5" s="4">
+        <v>3</v>
+      </c>
+      <c r="M5" s="5">
+        <v>4</v>
+      </c>
+      <c r="N5" s="8">
+        <v>5</v>
+      </c>
+      <c r="O5" s="7">
+        <v>3</v>
+      </c>
+      <c r="P5" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>5</v>
+      </c>
+      <c r="R5" s="8">
+        <v>4</v>
+      </c>
       <c r="S5" s="7"/>
       <c r="T5" s="4"/>
       <c r="U5" s="5"/>
       <c r="V5" s="8"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -1658,10 +1710,18 @@
       <c r="H6" s="7"/>
       <c r="I6" s="4"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="8"/>
+      <c r="K6" s="7">
+        <v>5</v>
+      </c>
+      <c r="L6" s="4">
+        <v>5</v>
+      </c>
+      <c r="M6" s="5">
+        <v>5</v>
+      </c>
+      <c r="N6" s="8">
+        <v>3</v>
+      </c>
       <c r="O6" s="7"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="5"/>
@@ -1671,7 +1731,7 @@
       <c r="U6" s="5"/>
       <c r="V6" s="8"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -1681,27 +1741,51 @@
       <c r="C7" s="2">
         <v>5</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="8"/>
+      <c r="D7" s="7">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3</v>
+      </c>
+      <c r="F7" s="5">
+        <v>5</v>
+      </c>
+      <c r="G7" s="8">
+        <v>5</v>
+      </c>
       <c r="H7" s="7"/>
       <c r="I7" s="4"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="8"/>
+      <c r="K7" s="7">
+        <v>5</v>
+      </c>
+      <c r="L7" s="4">
+        <v>5</v>
+      </c>
+      <c r="M7" s="5">
+        <v>3</v>
+      </c>
+      <c r="N7" s="8">
+        <v>3</v>
+      </c>
+      <c r="O7" s="7">
+        <v>2</v>
+      </c>
+      <c r="P7" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>5</v>
+      </c>
+      <c r="R7" s="8">
+        <v>5</v>
+      </c>
       <c r="S7" s="7"/>
       <c r="T7" s="4"/>
       <c r="U7" s="5"/>
       <c r="V7" s="8"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
@@ -1711,27 +1795,51 @@
       <c r="C8" s="2">
         <v>3</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="8"/>
+      <c r="D8" s="7">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3</v>
+      </c>
+      <c r="F8" s="5">
+        <v>3</v>
+      </c>
+      <c r="G8" s="8">
+        <v>3</v>
+      </c>
       <c r="H8" s="7"/>
       <c r="I8" s="4"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="8"/>
+      <c r="K8" s="7">
+        <v>3</v>
+      </c>
+      <c r="L8" s="4">
+        <v>3</v>
+      </c>
+      <c r="M8" s="5">
+        <v>3</v>
+      </c>
+      <c r="N8" s="8">
+        <v>5</v>
+      </c>
+      <c r="O8" s="7">
+        <v>2</v>
+      </c>
+      <c r="P8" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>5</v>
+      </c>
+      <c r="R8" s="8">
+        <v>4</v>
+      </c>
       <c r="S8" s="7"/>
       <c r="T8" s="4"/>
       <c r="U8" s="5"/>
       <c r="V8" s="8"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
@@ -1741,27 +1849,51 @@
       <c r="C9" s="2">
         <v>3</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="8"/>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4</v>
+      </c>
+      <c r="F9" s="5">
+        <v>5</v>
+      </c>
+      <c r="G9" s="8">
+        <v>5</v>
+      </c>
       <c r="H9" s="7"/>
       <c r="I9" s="4"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="8"/>
+      <c r="K9" s="7">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4">
+        <v>5</v>
+      </c>
+      <c r="M9" s="5">
+        <v>5</v>
+      </c>
+      <c r="N9" s="8">
+        <v>5</v>
+      </c>
+      <c r="O9" s="7">
+        <v>5</v>
+      </c>
+      <c r="P9" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>2</v>
+      </c>
+      <c r="R9" s="8">
+        <v>5</v>
+      </c>
       <c r="S9" s="7"/>
       <c r="T9" s="4"/>
       <c r="U9" s="5"/>
       <c r="V9" s="8"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
@@ -1771,27 +1903,51 @@
       <c r="C10" s="2">
         <v>3</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="8"/>
+      <c r="D10" s="7">
+        <v>5</v>
+      </c>
+      <c r="E10" s="4">
+        <v>5</v>
+      </c>
+      <c r="F10" s="5">
+        <v>5</v>
+      </c>
+      <c r="G10" s="8">
+        <v>5</v>
+      </c>
       <c r="H10" s="7"/>
       <c r="I10" s="4"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="8"/>
+      <c r="K10" s="7">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4">
+        <v>4</v>
+      </c>
+      <c r="M10" s="5">
+        <v>5</v>
+      </c>
+      <c r="N10" s="8">
+        <v>5</v>
+      </c>
+      <c r="O10" s="7">
+        <v>1</v>
+      </c>
+      <c r="P10" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>5</v>
+      </c>
+      <c r="R10" s="8">
+        <v>5</v>
+      </c>
       <c r="S10" s="7"/>
       <c r="T10" s="4"/>
       <c r="U10" s="5"/>
       <c r="V10" s="8"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
@@ -1821,7 +1977,7 @@
       <c r="U11" s="5"/>
       <c r="V11" s="8"/>
     </row>
-    <row r="12" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
@@ -1831,27 +1987,51 @@
       <c r="C12" s="2">
         <v>4</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="8"/>
+      <c r="D12" s="7">
+        <v>5</v>
+      </c>
+      <c r="E12" s="4">
+        <v>4</v>
+      </c>
+      <c r="F12" s="5">
+        <v>3</v>
+      </c>
+      <c r="G12" s="8">
+        <v>5</v>
+      </c>
       <c r="H12" s="7"/>
       <c r="I12" s="4"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="8"/>
+      <c r="K12" s="7">
+        <v>3</v>
+      </c>
+      <c r="L12" s="4">
+        <v>2</v>
+      </c>
+      <c r="M12" s="5">
+        <v>3</v>
+      </c>
+      <c r="N12" s="8">
+        <v>5</v>
+      </c>
+      <c r="O12" s="7">
+        <v>4</v>
+      </c>
+      <c r="P12" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>1</v>
+      </c>
+      <c r="R12" s="8">
+        <v>5</v>
+      </c>
       <c r="S12" s="7"/>
       <c r="T12" s="4"/>
       <c r="U12" s="5"/>
       <c r="V12" s="8"/>
     </row>
-    <row r="13" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>14</v>
       </c>
@@ -1861,10 +2041,18 @@
       <c r="C13" s="2">
         <v>5</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="8"/>
+      <c r="D13" s="7">
+        <v>5</v>
+      </c>
+      <c r="E13" s="4">
+        <v>4</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1</v>
+      </c>
       <c r="H13" s="7"/>
       <c r="I13" s="4"/>
       <c r="J13" s="5"/>
@@ -1881,7 +2069,7 @@
       <c r="U13" s="5"/>
       <c r="V13" s="8"/>
     </row>
-    <row r="14" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
@@ -1891,40 +2079,72 @@
       <c r="C14" s="2">
         <v>2</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="8"/>
+      <c r="D14" s="7">
+        <v>5</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
       <c r="H14" s="7"/>
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="8"/>
+      <c r="K14" s="7">
+        <v>2</v>
+      </c>
+      <c r="L14" s="4">
+        <v>1</v>
+      </c>
+      <c r="M14" s="5">
+        <v>2</v>
+      </c>
+      <c r="N14" s="8">
+        <v>5</v>
+      </c>
+      <c r="O14" s="7">
+        <v>1</v>
+      </c>
+      <c r="P14" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>5</v>
+      </c>
+      <c r="R14" s="8">
+        <v>1</v>
+      </c>
       <c r="S14" s="7"/>
       <c r="T14" s="4"/>
       <c r="U14" s="5"/>
       <c r="V14" s="8"/>
     </row>
-    <row r="15" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C15" s="2">
         <v>5</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="8"/>
+      <c r="D15" s="7">
+        <v>2</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2</v>
+      </c>
+      <c r="F15" s="5">
+        <v>4</v>
+      </c>
+      <c r="G15" s="8">
+        <v>4</v>
+      </c>
       <c r="H15" s="7"/>
       <c r="I15" s="4"/>
       <c r="J15" s="5"/>
@@ -1941,307 +2161,345 @@
       <c r="U15" s="5"/>
       <c r="V15" s="8"/>
     </row>
-    <row r="16" spans="1:22" s="3" customFormat="1" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+    <row r="16" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="2">
+        <v>5</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="7">
+        <v>1</v>
+      </c>
+      <c r="P16" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>1</v>
+      </c>
+      <c r="R16" s="8">
+        <v>5</v>
+      </c>
+      <c r="S16" s="7"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="8"/>
+    </row>
+    <row r="17" spans="1:22" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="9">
-        <f>SUMPRODUCT(C4:C15,D4:D15)</f>
+      <c r="B17" s="33"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="9">
+        <f>SUMPRODUCT(C4:C16,D4:D16)</f>
+        <v>168</v>
+      </c>
+      <c r="E17" s="10">
+        <f>SUMPRODUCT(C4:C16,E4:E16)</f>
+        <v>146</v>
+      </c>
+      <c r="F17" s="11">
+        <f>SUMPRODUCT(C4:C16,F4:F16)</f>
+        <v>136</v>
+      </c>
+      <c r="G17" s="12">
+        <f>SUMPRODUCT(C4:C16,G4:G16)</f>
+        <v>142</v>
+      </c>
+      <c r="H17" s="13">
+        <f>SUMPRODUCT(C4:C16,H4:H16)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="10">
-        <f>SUMPRODUCT(C4:C15,E4:E15)</f>
+      <c r="I17" s="10">
+        <f>SUMPRODUCT(C4:C16,I4:I16)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="11">
-        <f>SUMPRODUCT(C4:C15,F4:F15)</f>
+      <c r="J17" s="11">
+        <f>SUMPRODUCT(C4:C16,J4:J16)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="12">
-        <f>SUMPRODUCT(C4:C15,G4:G15)</f>
+      <c r="K17" s="13">
+        <f>SUMPRODUCT(C4:C16,K4:K16)</f>
+        <v>121</v>
+      </c>
+      <c r="L17" s="10">
+        <f>SUMPRODUCT(C4:C16,L4:L16)</f>
+        <v>123</v>
+      </c>
+      <c r="M17" s="11">
+        <f>SUMPRODUCT(C4:C16,M4:M16)</f>
+        <v>126</v>
+      </c>
+      <c r="N17" s="12">
+        <f>SUMPRODUCT(C4:C16,N4:N16)</f>
+        <v>147</v>
+      </c>
+      <c r="O17" s="13">
+        <f>SUMPRODUCT(C4:C16,O4:O16)</f>
+        <v>89</v>
+      </c>
+      <c r="P17" s="10">
+        <f>SUMPRODUCT(C4:C16,P4:P16)</f>
+        <v>112</v>
+      </c>
+      <c r="Q17" s="11">
+        <f>SUMPRODUCT(C4:C16,Q4:Q16)</f>
+        <v>125</v>
+      </c>
+      <c r="R17" s="12">
+        <f>SUMPRODUCT(C4:C16,R4:R16)</f>
+        <v>150</v>
+      </c>
+      <c r="S17" s="13">
+        <f>SUMPRODUCT(C4:C16,S4:S16)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="13">
-        <f>SUMPRODUCT(C4:C15,H4:H15)</f>
+      <c r="T17" s="10">
+        <f>SUMPRODUCT(C4:C16,T4:T16)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="10">
-        <f>SUMPRODUCT(C4:C15,I4:I15)</f>
+      <c r="U17" s="11">
+        <f>SUMPRODUCT(C4:C16,U4:U16)</f>
         <v>0</v>
       </c>
-      <c r="J16" s="11">
-        <f>SUMPRODUCT(C4:C15,J4:J15)</f>
+      <c r="V17" s="12">
+        <f>SUMPRODUCT(C4:C16,V4:V16)</f>
         <v>0</v>
       </c>
-      <c r="K16" s="13">
-        <f>SUMPRODUCT(C4:C15,K4:K15)</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="10">
-        <f>SUMPRODUCT(C4:C15,L4:L15)</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="11">
-        <f>SUMPRODUCT(C4:C15,M4:M15)</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="12">
-        <f>SUMPRODUCT(C4:C15,N4:N15)</f>
-        <v>0</v>
-      </c>
-      <c r="O16" s="13">
-        <f>SUMPRODUCT(C4:C15,O4:O15)</f>
-        <v>0</v>
-      </c>
-      <c r="P16" s="10">
-        <f>SUMPRODUCT(C4:C15,P4:P15)</f>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="11">
-        <f>SUMPRODUCT(C4:C15,Q4:Q15)</f>
-        <v>0</v>
-      </c>
-      <c r="R16" s="12">
-        <f>SUMPRODUCT(C4:C15,R4:R15)</f>
-        <v>0</v>
-      </c>
-      <c r="S16" s="13">
-        <f>SUMPRODUCT(C4:C15,S4:S15)</f>
-        <v>0</v>
-      </c>
-      <c r="T16" s="10">
-        <f>SUMPRODUCT(C4:C15,T4:T15)</f>
-        <v>0</v>
-      </c>
-      <c r="U16" s="11">
-        <f>SUMPRODUCT(C4:C15,U4:U15)</f>
-        <v>0</v>
-      </c>
-      <c r="V16" s="12">
-        <f>SUMPRODUCT(C4:C15,V4:V15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="32"/>
-    </row>
-    <row r="18" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="H18" s="39" t="s">
+    </row>
+    <row r="18" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+    </row>
+    <row r="19" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="H19" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="40"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="36" t="s">
+      <c r="I19" s="39"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="39" t="s">
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="15">
+      <c r="P19" s="39"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="15">
         <v>1</v>
       </c>
-      <c r="S18" s="36" t="s">
+      <c r="S19" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="T18" s="37"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="38"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="36" t="s">
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="37"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="15">
-        <v>2</v>
-      </c>
-      <c r="S19" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="T19" s="37"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="38"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="33"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="42"/>
       <c r="Q20" s="43"/>
       <c r="R20" s="15">
-        <v>3</v>
-      </c>
-      <c r="S20" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="T20" s="37"/>
-      <c r="U20" s="37"/>
-      <c r="V20" s="38"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="33"/>
+        <v>2</v>
+      </c>
+      <c r="S20" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="37"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="42"/>
       <c r="J21" s="43"/>
-      <c r="K21" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="33"/>
+      <c r="K21" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="42"/>
       <c r="Q21" s="43"/>
       <c r="R21" s="15">
+        <v>3</v>
+      </c>
+      <c r="S21" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="37"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="15">
         <v>4</v>
       </c>
-      <c r="S21" s="36" t="s">
+      <c r="S22" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="T21" s="37"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="38"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="36" t="s">
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="37"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="15">
-        <v>5</v>
-      </c>
-      <c r="S22" s="36" t="s">
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="15">
+        <v>5</v>
+      </c>
+      <c r="S23" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="T22" s="37"/>
-      <c r="U22" s="37"/>
-      <c r="V22" s="38"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="F24" s="14"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="37"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F25" s="14"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
     </row>
-    <row r="33" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J33" s="14"/>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+    </row>
+    <row r="34" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J34" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A17:V17"/>
+    <mergeCell ref="H19:J23"/>
+    <mergeCell ref="O19:Q23"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="S19:V19"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="S22:V22"/>
+    <mergeCell ref="S23:V23"/>
+    <mergeCell ref="A18:V18"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
     <mergeCell ref="S2:V2"/>
-    <mergeCell ref="S18:V18"/>
-    <mergeCell ref="S19:V19"/>
-    <mergeCell ref="S20:V20"/>
-    <mergeCell ref="S21:V21"/>
-    <mergeCell ref="S22:V22"/>
-    <mergeCell ref="H18:J22"/>
-    <mergeCell ref="O18:Q22"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2257,7 +2515,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bewertungsmatrix.xlsx
+++ b/Bewertungsmatrix.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26709"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heuby/git/masterthesis/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="6120" windowWidth="24765" windowHeight="16440"/>
+    <workbookView xWindow="2100" yWindow="6120" windowWidth="24760" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>Nr</t>
   </si>
@@ -124,9 +129,6 @@
     <t>Datenspeicherung</t>
   </si>
   <si>
-    <t>Deployment Pipeline</t>
-  </si>
-  <si>
     <t>Schnittstellen Versionierung</t>
   </si>
   <si>
@@ -145,9 +147,6 @@
     <t>Key-Value Redis</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
     <t>Document MongoDB</t>
   </si>
   <si>
@@ -197,15 +196,6 @@
   </si>
   <si>
     <t>Interportabilität</t>
-  </si>
-  <si>
-    <t>Column2</t>
-  </si>
-  <si>
-    <t>Column3</t>
-  </si>
-  <si>
-    <t>Column4</t>
   </si>
   <si>
     <t>Strategisch</t>
@@ -605,7 +595,7 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -662,39 +652,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="4" applyFont="1" applyBorder="1"/>
@@ -725,6 +682,42 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Currency" xfId="3" builtinId="4"/>
@@ -733,79 +726,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="4" builtinId="21"/>
   </cellStyles>
-  <dxfs count="42">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="34">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1105,30 +1026,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:V16" totalsRowShown="0">
-  <tableColumns count="22">
-    <tableColumn id="1" name="Nr" dataDxfId="41"/>
-    <tableColumn id="2" name="Beschreibung" dataDxfId="40" totalsRowDxfId="39"/>
-    <tableColumn id="12" name="Gewicht" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="7" name="RDBMS Oracle" totalsRowDxfId="36"/>
-    <tableColumn id="5" name="RDBMS MySQL" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="6" name="Key-Value Redis" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="8" name="Document MongoDB" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="11" name="Pfad" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="10" name="Content-Negotiation" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="3" name="GraphQL" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="20" name="Message-Queue JMS" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="19" name="Message-Queue Kafka" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="18" name="Mesage-Queue Redis" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="25" name="Spring-Rest" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="24" name="Docker Compose,Swarm" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="23" name="Kubernetes" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="22" name="SaltStack" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="26" name="Spring Cloud Config" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="28" name="Column1" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="27" name="Column2" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="29" name="Column3" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="9" name="Column4" dataDxfId="1" totalsRowDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:R16" totalsRowShown="0">
+  <tableColumns count="18">
+    <tableColumn id="1" name="Nr" dataDxfId="33"/>
+    <tableColumn id="2" name="Beschreibung" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="12" name="Gewicht" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="7" name="RDBMS Oracle" totalsRowDxfId="28"/>
+    <tableColumn id="5" name="RDBMS MySQL" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="6" name="Key-Value Redis" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="8" name="Document MongoDB" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="11" name="Pfad" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="10" name="Content-Negotiation" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="3" name="GraphQL" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="20" name="Message-Queue JMS" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="19" name="Message-Queue Kafka" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="18" name="Mesage-Queue Redis" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="25" name="Spring-Rest" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="24" name="Docker Compose,Swarm" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="23" name="Kubernetes" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="22" name="SaltStack" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="26" name="Spring Cloud Config" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1423,7 +1340,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1431,93 +1348,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V34"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" customWidth="1"/>
-    <col min="8" max="9" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" customWidth="1"/>
-    <col min="14" max="14" width="5.28515625" customWidth="1"/>
-    <col min="15" max="16" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.5703125" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="45.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" customWidth="1"/>
+    <col min="8" max="9" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" customWidth="1"/>
+    <col min="14" max="14" width="5.33203125" customWidth="1"/>
+    <col min="15" max="16" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.5" customWidth="1"/>
     <col min="18" max="18" width="6" customWidth="1"/>
-    <col min="19" max="20" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="3.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:18" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-    </row>
-    <row r="2" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="24" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+    </row>
+    <row r="2" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="24" t="s">
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="24" t="s">
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="29"/>
-    </row>
-    <row r="3" spans="1:22" ht="132.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="44"/>
+    </row>
+    <row r="3" spans="1:18" ht="133" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1528,69 +1433,57 @@
         <v>19</v>
       </c>
       <c r="D3" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="F3" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="G3" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="H3" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="J3" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="K3" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="L3" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="M3" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="N3" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="O3" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="P3" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="Q3" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="P3" s="18" t="s">
+      <c r="R3" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="Q3" s="18" t="s">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="R3" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="S3" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="T3" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="U3" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="V3" s="19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="C4" s="2">
         <v>5</v>
@@ -1634,17 +1527,13 @@
       <c r="R4" s="8">
         <v>4</v>
       </c>
-      <c r="S4" s="7"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="8"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
@@ -1688,12 +1577,8 @@
       <c r="R5" s="8">
         <v>4</v>
       </c>
-      <c r="S5" s="7"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="8"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -1726,12 +1611,8 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="8"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="8"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -1780,17 +1661,13 @@
       <c r="R7" s="8">
         <v>5</v>
       </c>
-      <c r="S7" s="7"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="8"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
@@ -1834,17 +1711,13 @@
       <c r="R8" s="8">
         <v>4</v>
       </c>
-      <c r="S8" s="7"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="8"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C9" s="2">
         <v>3</v>
@@ -1888,12 +1761,8 @@
       <c r="R9" s="8">
         <v>5</v>
       </c>
-      <c r="S9" s="7"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="8"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
@@ -1942,17 +1811,13 @@
       <c r="R10" s="8">
         <v>5</v>
       </c>
-      <c r="S10" s="7"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="8"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" s="2">
         <v>3</v>
@@ -1972,12 +1837,8 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="8"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="8"/>
-    </row>
-    <row r="12" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
@@ -2026,17 +1887,13 @@
       <c r="R12" s="8">
         <v>5</v>
       </c>
-      <c r="S12" s="7"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="8"/>
-    </row>
-    <row r="13" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C13" s="2">
         <v>5</v>
@@ -2064,17 +1921,13 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="8"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="8"/>
-    </row>
-    <row r="14" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C14" s="2">
         <v>2</v>
@@ -2118,17 +1971,13 @@
       <c r="R14" s="8">
         <v>1</v>
       </c>
-      <c r="S14" s="7"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="8"/>
-    </row>
-    <row r="15" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C15" s="2">
         <v>5</v>
@@ -2156,17 +2005,13 @@
       <c r="P15" s="4"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="8"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="8"/>
-    </row>
-    <row r="16" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C16" s="2">
         <v>5</v>
@@ -2194,17 +2039,13 @@
       <c r="R16" s="8">
         <v>5</v>
       </c>
-      <c r="S16" s="7"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="8"/>
-    </row>
-    <row r="17" spans="1:22" s="3" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="32" t="s">
+    </row>
+    <row r="17" spans="1:18" s="3" customFormat="1" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="34"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="9">
         <f>SUMPRODUCT(C4:C16,D4:D16)</f>
         <v>168</v>
@@ -2265,241 +2106,198 @@
         <f>SUMPRODUCT(C4:C16,R4:R16)</f>
         <v>150</v>
       </c>
-      <c r="S17" s="13">
-        <f>SUMPRODUCT(C4:C16,S4:S16)</f>
-        <v>0</v>
-      </c>
-      <c r="T17" s="10">
-        <f>SUMPRODUCT(C4:C16,T4:T16)</f>
-        <v>0</v>
-      </c>
-      <c r="U17" s="11">
-        <f>SUMPRODUCT(C4:C16,U4:U16)</f>
-        <v>0</v>
-      </c>
-      <c r="V17" s="12">
-        <f>SUMPRODUCT(C4:C16,V4:V16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="22"/>
-    </row>
-    <row r="19" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+    </row>
+    <row r="19" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21"/>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="H19" s="38" t="s">
+      <c r="D19" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="39"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="35" t="s">
+      <c r="E19" s="26"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="38" t="s">
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="15">
+      <c r="L19" s="26"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="15">
         <v>1</v>
       </c>
-      <c r="S19" s="35" t="s">
+      <c r="O19" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="T19" s="36"/>
-      <c r="U19" s="36"/>
-      <c r="V19" s="37"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="36"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="20"/>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="35" t="s">
+      <c r="D20" s="28"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="15">
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="15">
         <v>2</v>
       </c>
-      <c r="S20" s="35" t="s">
+      <c r="O20" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="37"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="36"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="20"/>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="35" t="s">
+      <c r="D21" s="28"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="15">
-        <v>3</v>
-      </c>
-      <c r="S21" s="35" t="s">
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="15">
+        <v>3</v>
+      </c>
+      <c r="O21" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="37"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="36"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="20"/>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="35" t="s">
+      <c r="D22" s="28"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="15">
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="15">
         <v>4</v>
       </c>
-      <c r="S22" s="35" t="s">
+      <c r="O22" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="T22" s="36"/>
-      <c r="U22" s="36"/>
-      <c r="V22" s="37"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="36"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="20"/>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="35" t="s">
+      <c r="D23" s="31"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="15">
-        <v>5</v>
-      </c>
-      <c r="S23" s="35" t="s">
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="15">
+        <v>5</v>
+      </c>
+      <c r="O23" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="T23" s="36"/>
-      <c r="U23" s="36"/>
-      <c r="V23" s="37"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="36"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="F25" s="14"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
     </row>
-    <row r="34" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J34" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="H19:J23"/>
-    <mergeCell ref="O19:Q23"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="S19:V19"/>
-    <mergeCell ref="S20:V20"/>
-    <mergeCell ref="S21:V21"/>
-    <mergeCell ref="S22:V22"/>
-    <mergeCell ref="S23:V23"/>
-    <mergeCell ref="A18:V18"/>
-    <mergeCell ref="A1:V1"/>
+  <mergeCells count="13">
+    <mergeCell ref="A18:R18"/>
+    <mergeCell ref="A1:R1"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A17:C17"/>
-    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="O23:R23"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2515,7 +2313,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
